--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490607.5332579484</v>
+        <v>487947.0945127498</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>143.3842421118706</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>328.1417795889164</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933844</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183545</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>45.5521150983738</v>
+        <v>90.47425134795112</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>248.1984952240926</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>398.7117047327484</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.956416105913533</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.46149937367052</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.2397255529495</v>
+        <v>12.23972555294949</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580342</v>
+        <v>226.0141001022996</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>111.2206899326927</v>
+        <v>209.6875146996641</v>
       </c>
       <c r="U8" t="n">
         <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>96.40754664444705</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237112992</v>
+        <v>32.97111237112995</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.5150762987066</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>101.6051253461945</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
-        <v>189.8384763261086</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>253.3036747589507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752109141</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278194</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920368</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>123.0214018118383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174107</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.48499328953088</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.579726596858007</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428044</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695562</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833843</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>134.4525633547283</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428162</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>1.839588425939269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>26.13627195705783</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503966</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>178.5134655978066</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>108.9501037550962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>26.13627195705737</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.02686156550138</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>43.73846614325492</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>140.5758943588662</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>391.1027633079238</v>
+        <v>1325.578137667892</v>
       </c>
       <c r="C2" t="n">
-        <v>391.1027633079238</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="D2" t="n">
-        <v>391.1027633079238</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="E2" t="n">
-        <v>391.1027633079238</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F2" t="n">
-        <v>384.1572625587203</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
         <v>52.70091953961286</v>
@@ -4331,19 +4331,19 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L2" t="n">
-        <v>1197.621189819594</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M2" t="n">
-        <v>1384.320602645002</v>
+        <v>786.0860970395237</v>
       </c>
       <c r="N2" t="n">
-        <v>2011.628270704848</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O2" t="n">
-        <v>2279.135690956216</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P2" t="n">
         <v>2389.870016205742</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2225.139236222622</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V2" t="n">
-        <v>1894.076348879051</v>
+        <v>2089.183227904784</v>
       </c>
       <c r="W2" t="n">
-        <v>1541.307693608937</v>
+        <v>2089.183227904784</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.841935347857</v>
+        <v>1715.717469643704</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.7026033720456</v>
+        <v>1325.578137667892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662192</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850922</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.735165023841</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183855</v>
       </c>
       <c r="F3" t="n">
         <v>336.9631520452699</v>
@@ -4413,28 +4413,28 @@
         <v>238.9679910598655</v>
       </c>
       <c r="L3" t="n">
-        <v>743.329530925984</v>
+        <v>453.4876558703397</v>
       </c>
       <c r="M3" t="n">
-        <v>922.8268672805889</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N3" t="n">
-        <v>1575.000746583298</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O3" t="n">
-        <v>2124.436755336021</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P3" t="n">
-        <v>2548.404523816857</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T3" t="n">
         <v>2267.477992405552</v>
@@ -4443,13 +4443,13 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.337940986287</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>544.4985905723713</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C4" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D4" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E4" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F4" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961286</v>
@@ -4516,22 +4516,22 @@
         <v>845.195316251363</v>
       </c>
       <c r="T4" t="n">
-        <v>845.195316251363</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U4" t="n">
-        <v>799.1830787782582</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V4" t="n">
-        <v>544.4985905723713</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W4" t="n">
-        <v>544.4985905723713</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X4" t="n">
-        <v>544.4985905723713</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.4985905723713</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1835.491524649934</v>
+        <v>1524.662582410946</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.785973918528</v>
+        <v>1524.662582410946</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.785973918528</v>
+        <v>1166.396883804196</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.997721320284</v>
+        <v>780.6086312059517</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>773.6631304567483</v>
       </c>
       <c r="G5" t="n">
         <v>370.9240347671034</v>
@@ -4568,13 +4568,13 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>616.7309383942948</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1248.448749377606</v>
+        <v>1104.666818129292</v>
       </c>
       <c r="N5" t="n">
         <v>1731.974486189138</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2166.554411993505</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>1835.491524649934</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W5" t="n">
-        <v>1835.491524649934</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X5" t="n">
-        <v>1835.491524649934</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1835.491524649934</v>
+        <v>1911.262422475068</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>736.1097258592549</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
         <v>1376.65507532636</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.2057630587627</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C7" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D7" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E7" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F7" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G7" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961286</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>1031.967419813432</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="T7" t="n">
-        <v>827.0064043113226</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="U7" t="n">
-        <v>537.8542278890025</v>
+        <v>535.3749586435171</v>
       </c>
       <c r="V7" t="n">
-        <v>537.8542278890025</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W7" t="n">
-        <v>537.8542278890025</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X7" t="n">
-        <v>537.8542278890025</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.8542278890025</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.230610371636</v>
+        <v>1448.401205489012</v>
       </c>
       <c r="C8" t="n">
-        <v>787.2680934312242</v>
+        <v>1448.401205489012</v>
       </c>
       <c r="D8" t="n">
-        <v>787.2680934312242</v>
+        <v>1090.135506882262</v>
       </c>
       <c r="E8" t="n">
-        <v>787.2680934312242</v>
+        <v>704.3472542840175</v>
       </c>
       <c r="F8" t="n">
-        <v>780.3225926820207</v>
+        <v>293.3613494944099</v>
       </c>
       <c r="G8" t="n">
-        <v>363.9188294972232</v>
+        <v>280.9979903500165</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961286</v>
@@ -4802,28 +4802,28 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>130.8350924684851</v>
+        <v>130.835092468485</v>
       </c>
       <c r="K8" t="n">
-        <v>619.5804401854209</v>
+        <v>298.6764817399675</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7042869855062</v>
+        <v>950.8503610426766</v>
       </c>
       <c r="M8" t="n">
-        <v>1169.121234303571</v>
+        <v>1385.226975443454</v>
       </c>
       <c r="N8" t="n">
-        <v>1676.707704500189</v>
+        <v>2037.400854746163</v>
       </c>
       <c r="O8" t="n">
-        <v>1959.832701368976</v>
+        <v>2320.525851614949</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.553056098991</v>
+        <v>2527.665485255196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2592.933547824438</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2522.701845735499</v>
+        <v>2423.240406576942</v>
       </c>
       <c r="U8" t="n">
-        <v>2269.064863966952</v>
+        <v>2169.603424808395</v>
       </c>
       <c r="V8" t="n">
-        <v>2269.064863966952</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.296208696838</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.830450435758</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.830450435758</v>
+        <v>1448.401205489012</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>183.3864336967613</v>
       </c>
       <c r="H9" t="n">
-        <v>86.0050734498451</v>
+        <v>86.00507344984514</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>80.41925070638538</v>
+        <v>205.24937569339</v>
       </c>
       <c r="K9" t="n">
-        <v>467.7697029486091</v>
+        <v>330.7792432931607</v>
       </c>
       <c r="L9" t="n">
-        <v>682.8826424394956</v>
+        <v>839.169161889728</v>
       </c>
       <c r="M9" t="n">
-        <v>1335.056521742205</v>
+        <v>1491.343041192437</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.004936279173</v>
+        <v>1783.291455729405</v>
       </c>
       <c r="O9" t="n">
-        <v>2135.449049174654</v>
+        <v>2028.147423079607</v>
       </c>
       <c r="P9" t="n">
-        <v>2312.634483613314</v>
+        <v>2520.610998471805</v>
       </c>
       <c r="Q9" t="n">
         <v>2589.135572646087</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C10" t="n">
         <v>52.70091953961286</v>
@@ -4960,52 +4960,52 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193417</v>
+        <v>56.44303377193411</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012953</v>
+        <v>192.4293137012951</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763052</v>
+        <v>421.971368176305</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438118</v>
+        <v>674.3804035438116</v>
       </c>
       <c r="N10" t="n">
-        <v>926.222332634066</v>
+        <v>926.2223326340657</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431833</v>
+        <v>1142.822820431832</v>
       </c>
       <c r="P10" t="n">
         <v>1304.641274404488</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069307</v>
+        <v>1333.240904069306</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069307</v>
+        <v>1216.559008818087</v>
       </c>
       <c r="S10" t="n">
-        <v>1333.240904069307</v>
+        <v>1216.559008818087</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.240904069307</v>
+        <v>1113.927569074457</v>
       </c>
       <c r="U10" t="n">
-        <v>1333.240904069307</v>
+        <v>824.7921286804777</v>
       </c>
       <c r="V10" t="n">
-        <v>1141.484867376268</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W10" t="n">
-        <v>852.067697339307</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X10" t="n">
-        <v>624.0781464412896</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.2855672977595</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1682.280632118034</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.318115177623</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656971</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464064</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377404</v>
+        <v>3672.904689377405</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498932</v>
+        <v>3419.410747498933</v>
       </c>
       <c r="V11" t="n">
         <v>3088.347860155362</v>
       </c>
       <c r="W11" t="n">
-        <v>2832.485562419048</v>
+        <v>2735.579204885248</v>
       </c>
       <c r="X11" t="n">
-        <v>2459.019804157968</v>
+        <v>2362.113446624168</v>
       </c>
       <c r="Y11" t="n">
-        <v>2068.880472182156</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626179</v>
+        <v>676.7125526339495</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1184.669118590478</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720357</v>
+        <v>1720.478428291689</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2188.419472624212</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.1522885170687</v>
+        <v>227.6543053282566</v>
       </c>
       <c r="C13" t="n">
-        <v>395.1522885170687</v>
+        <v>227.6543053282566</v>
       </c>
       <c r="D13" t="n">
-        <v>245.035649104733</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="E13" t="n">
-        <v>245.035649104733</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="F13" t="n">
-        <v>245.035649104733</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J13" t="n">
         <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648148</v>
       </c>
       <c r="L13" t="n">
         <v>710.5788654344815</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276105</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710546</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659997</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1315.000053425817</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1025.582883388856</v>
+        <v>814.5429355999247</v>
       </c>
       <c r="X13" t="n">
-        <v>797.5933324908385</v>
+        <v>586.5533847019074</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.8007533473084</v>
+        <v>365.7608055583772</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5300,25 +5300,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261139</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2091.55094854792</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.866460342033</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305073</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6078,13 +6078,13 @@
         <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6458,37 +6458,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536384</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257315</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133958</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310027</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.868625753638</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654817</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830886</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851782</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622257</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343188</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>597.257077721983</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395899</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4540366416795</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2579373565591</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,13 +7333,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048576</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048576</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>446.9048623224645</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7649,25 +7649,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038341</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>137.5293487322437</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>98.3216110448565</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>78.07077454018204</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>458.0981188384287</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.55001208263499</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>210.7634575253497</v>
       </c>
       <c r="N5" t="n">
-        <v>292.1126504237872</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>218.9402060587255</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>313.8049245052661</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384287</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>411.1616489925497</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>131.2723909926389</v>
       </c>
       <c r="N8" t="n">
-        <v>195.5857879131254</v>
+        <v>341.6336758990761</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>23.1786126444932</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>296.2393728340213</v>
       </c>
       <c r="M9" t="n">
-        <v>385.6468252186348</v>
+        <v>385.6468252186349</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>266.2506520659379</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.92668002524843</v>
+        <v>43.92668002524849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184544</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>95.93729395846231</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349621</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411785</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>129.1162415119897</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.3469868924064</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631857308</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.2522535850793</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393192</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>151.7319110345158</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393074</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823125</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>73.62417772602143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>177.5728945814948</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.2691783702309</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.26785128072251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>101.6825818796763</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940150.726099979</v>
+        <v>940150.7260999794</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1035211.354254882</v>
+        <v>1035211.354254881</v>
       </c>
     </row>
     <row r="9">
@@ -26314,34 +26314,34 @@
         <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.891030338</v>
+        <v>347979.8910303383</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527528</v>
@@ -26350,10 +26350,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426445</v>
+        <v>144261.3327426441</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318965</v>
+        <v>446448.3338318971</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704281</v>
+        <v>189308.2687704278</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951801</v>
+        <v>77367.70679951807</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202344</v>
+        <v>49839.57413202327</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160336.9200875359</v>
+        <v>160336.9200875361</v>
       </c>
       <c r="E4" t="n">
         <v>6792.005937060821</v>
@@ -26433,28 +26433,28 @@
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707352</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707346</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707371</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707374</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26473,10 +26473,10 @@
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804755</v>
+        <v>90290.24696804753</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-679162.4632845449</v>
       </c>
       <c r="C6" t="n">
-        <v>113484.95042644</v>
+        <v>113484.9504264399</v>
       </c>
       <c r="D6" t="n">
-        <v>-4893.659112693189</v>
+        <v>-4893.659112692796</v>
       </c>
       <c r="E6" t="n">
-        <v>-190397.9338060051</v>
+        <v>-190619.0651199801</v>
       </c>
       <c r="F6" t="n">
-        <v>86066.41176171041</v>
+        <v>86031.67383627483</v>
       </c>
       <c r="G6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.9426067026</v>
       </c>
       <c r="H6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067026</v>
       </c>
       <c r="I6" t="n">
-        <v>275374.6805321383</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="J6" t="n">
-        <v>103013.6881318575</v>
+        <v>102978.950206422</v>
       </c>
       <c r="K6" t="n">
-        <v>275374.6805321383</v>
+        <v>275339.9426067026</v>
       </c>
       <c r="L6" t="n">
-        <v>275374.6805321386</v>
+        <v>275339.9426067026</v>
       </c>
       <c r="M6" t="n">
-        <v>198006.9737326202</v>
+        <v>197972.2358071845</v>
       </c>
       <c r="N6" t="n">
-        <v>225535.1064001151</v>
+        <v>225500.3684746795</v>
       </c>
       <c r="O6" t="n">
-        <v>275374.6805321382</v>
+        <v>275339.9426067026</v>
       </c>
       <c r="P6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067027</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936593</v>
+        <v>761.9242255936589</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490101</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555943</v>
+        <v>168.4481252555938</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212917</v>
+        <v>440.3170116212924</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.4593297038491</v>
+        <v>310.4593297038493</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038491</v>
+        <v>310.4593297038493</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038491</v>
+        <v>310.4593297038493</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>221.8886496591369</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>84.77512435702039</v>
-      </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>118.4960408938903</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.588240815588506e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>240.7085395597232</v>
+        <v>195.7864033101459</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>117.074396546915</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14.20519921318834</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>142.755680563319</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>108.7116822941208</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.09163075573466</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824689</v>
+        <v>92.38912089824696</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979417</v>
+        <v>139.2216844979418</v>
       </c>
       <c r="T8" t="n">
-        <v>98.46682476697136</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987066</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.0721924556109</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0750257228877</v>
+        <v>120.4699003766932</v>
       </c>
       <c r="U10" t="n">
-        <v>286.244085990039</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>62.29916699771937</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.275164981036864e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-7.545963853772264e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185563</v>
+        <v>3.063011962185561</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773291</v>
+        <v>31.36907125773288</v>
       </c>
       <c r="I8" t="n">
         <v>118.086768672159</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255471</v>
+        <v>259.969311525547</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848621</v>
+        <v>389.6266078848619</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225986</v>
+        <v>483.3662602225983</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051161</v>
+        <v>537.8380992051158</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426759</v>
+        <v>546.5408819426756</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436932</v>
+        <v>516.0830567436929</v>
       </c>
       <c r="P8" t="n">
-        <v>440.464948927237</v>
+        <v>440.4649489272367</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314665</v>
+        <v>330.7708330314662</v>
       </c>
       <c r="R8" t="n">
-        <v>192.406925169639</v>
+        <v>192.4069251696389</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830359</v>
+        <v>69.79838508830355</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446731</v>
+        <v>13.4083348644673</v>
       </c>
       <c r="U8" t="n">
-        <v>0.245040956974845</v>
+        <v>0.2450409569748448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465607</v>
+        <v>1.638855881465606</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204942</v>
+        <v>15.82789759204941</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028516</v>
+        <v>56.42552048028512</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765379</v>
+        <v>154.8359409765378</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347336</v>
+        <v>264.6392850347334</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454162</v>
+        <v>355.8401772454159</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485443</v>
+        <v>415.2487029485441</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045133</v>
+        <v>426.239100504513</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941437</v>
+        <v>389.9255043941435</v>
       </c>
       <c r="P9" t="n">
-        <v>312.949593716007</v>
+        <v>312.9495937160069</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762063</v>
+        <v>209.1985156762061</v>
       </c>
       <c r="R9" t="n">
         <v>101.7528239387155</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178439</v>
+        <v>30.44102920178437</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609176</v>
+        <v>6.605739276609173</v>
       </c>
       <c r="U9" t="n">
         <v>0.1078194658858952</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283648</v>
+        <v>1.373961718283647</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164917</v>
+        <v>12.21576873164916</v>
       </c>
       <c r="I10" t="n">
-        <v>41.3187760371119</v>
+        <v>41.31877603711187</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265389</v>
+        <v>97.13909348265383</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424092</v>
+        <v>159.6293705424091</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255525</v>
+        <v>204.2706358255524</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214994</v>
+        <v>215.3747446214993</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806242</v>
+        <v>210.2536145806241</v>
       </c>
       <c r="O10" t="n">
-        <v>194.203243598856</v>
+        <v>194.2032435988559</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458695</v>
+        <v>166.1744245458694</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646426</v>
+        <v>115.0505580646425</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846292</v>
+        <v>61.77831507846287</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136138</v>
+        <v>23.94440558136137</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393766</v>
+        <v>5.870563705393763</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07494336645183543</v>
+        <v>0.07494336645183537</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900933</v>
@@ -31792,7 +31792,7 @@
         <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
         <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>346.5700931427867</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>415.2297863570138</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383448</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
@@ -31926,13 +31926,13 @@
         <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493066</v>
@@ -31941,13 +31941,13 @@
         <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473724</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>518.0009690113193</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>208.6096528357818</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>253.8670488165992</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>436.0678650906015</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>509.0826837242976</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,22 +34699,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802098</v>
+        <v>326.1146142124534</v>
       </c>
       <c r="N2" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>270.2095154054217</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
         <v>247.6524856312129</v>
@@ -34781,10 +34781,10 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>216.6865301115901</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
         <v>658.7614942451607</v>
@@ -34793,10 +34793,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.51661935735922</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>399.3487230055595</v>
       </c>
       <c r="N5" t="n">
-        <v>488.4098351631633</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -35018,10 +35018,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>357.5559616301335</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>495.1153652674931</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451607</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.92340699886086</v>
+        <v>78.92340699886074</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6821694110463</v>
+        <v>169.5367568398813</v>
       </c>
       <c r="L8" t="n">
-        <v>247.5998452526114</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M8" t="n">
-        <v>307.4918659778434</v>
+        <v>438.764256970482</v>
       </c>
       <c r="N8" t="n">
-        <v>512.7136062592105</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9848453220064</v>
+        <v>285.9848453220061</v>
       </c>
       <c r="P8" t="n">
-        <v>531.0306613434501</v>
+        <v>209.2319531719672</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.465143157017</v>
+        <v>108.4651431570167</v>
       </c>
       <c r="R8" t="n">
-        <v>42.53780722848936</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.99831430987123</v>
+        <v>154.08934965028</v>
       </c>
       <c r="K9" t="n">
-        <v>391.2630830729532</v>
+        <v>126.7978460603744</v>
       </c>
       <c r="L9" t="n">
-        <v>217.285797465542</v>
+        <v>513.525170299563</v>
       </c>
       <c r="M9" t="n">
         <v>658.7614942451607</v>
       </c>
       <c r="N9" t="n">
-        <v>294.8973884211799</v>
+        <v>294.8973884211797</v>
       </c>
       <c r="O9" t="n">
-        <v>513.5799120156372</v>
+        <v>247.3292599496991</v>
       </c>
       <c r="P9" t="n">
-        <v>178.9751863016768</v>
+        <v>497.4379549416138</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.2940293260339</v>
+        <v>69.21674159018463</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.779913365981116</v>
+        <v>3.779913365981059</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165264</v>
+        <v>137.3598787165263</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858687</v>
+        <v>231.8606610858686</v>
       </c>
       <c r="M10" t="n">
-        <v>254.95862158334</v>
+        <v>254.9586215833399</v>
       </c>
       <c r="N10" t="n">
-        <v>254.3857869598528</v>
+        <v>254.3857869598527</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128957</v>
+        <v>218.7883715128956</v>
       </c>
       <c r="P10" t="n">
-        <v>163.452983810763</v>
+        <v>163.4529838107629</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294817</v>
+        <v>28.8885148129481</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
         <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>208.0157133629125</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>272.6335419125694</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240145</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323316</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>386.659256927986</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>66.47561891376348</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>127.0294221499325</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>302.0934576762713</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>377.7409716409642</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
